--- a/_Experiments/__dataRepo/_model_WesternBlot data.xlsx
+++ b/_Experiments/__dataRepo/_model_WesternBlot data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="2800" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="7400" yWindow="2800" windowWidth="25040" windowHeight="10720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -251,6 +251,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -300,10 +305,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.102663124993637</c:v>
+                    <c:v>0.10266312499363701</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.130412044859105</c:v>
+                    <c:v>0.13041204485910482</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -315,10 +320,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.102663124993637</c:v>
+                    <c:v>0.10266312499363701</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.130412044859105</c:v>
+                    <c:v>0.13041204485910482</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -345,10 +350,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.999999999674745</c:v>
+                  <c:v>0.99999999967474462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.222659123757027</c:v>
+                  <c:v>1.2226591237570268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -363,11 +368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2116814408"/>
-        <c:axId val="-2116201736"/>
+        <c:axId val="8137344"/>
+        <c:axId val="8180096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116814408"/>
+        <c:axId val="8137344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,7 +388,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2116201736"/>
+        <c:crossAx val="8180096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -391,7 +396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116201736"/>
+        <c:axId val="8180096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +413,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2116814408"/>
+        <c:crossAx val="8137344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -419,7 +424,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -471,10 +476,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0433068568504147</c:v>
+                    <c:v>4.330685685041475E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.168179182895343</c:v>
+                    <c:v>0.16817918289534323</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -486,10 +491,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0433068568504147</c:v>
+                    <c:v>4.330685685041475E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.168179182895343</c:v>
+                    <c:v>0.16817918289534323</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -502,10 +507,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.046815074131895</c:v>
+                  <c:v>1.0468150741318953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.19782481990617</c:v>
+                  <c:v>1.1978248199061705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,11 +525,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2116757224"/>
-        <c:axId val="2102402808"/>
+        <c:axId val="55427072"/>
+        <c:axId val="55428608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116757224"/>
+        <c:axId val="55427072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +545,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2102402808"/>
+        <c:crossAx val="55428608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -548,7 +553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102402808"/>
+        <c:axId val="55428608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +570,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2116757224"/>
+        <c:crossAx val="55427072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -576,7 +581,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -628,10 +633,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0400926450125617</c:v>
+                    <c:v>4.009264501256174E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.10505714173835</c:v>
+                    <c:v>0.10505714173834954</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -643,10 +648,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0400926450125617</c:v>
+                    <c:v>4.009264501256174E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.10505714173835</c:v>
+                    <c:v>0.10505714173834954</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -673,10 +678,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.00000000000693</c:v>
+                  <c:v>1.0000000000069302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.177453652573607</c:v>
+                  <c:v>1.1774536525736072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,11 +696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2117012856"/>
-        <c:axId val="2053888936"/>
+        <c:axId val="40318080"/>
+        <c:axId val="40319616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2117012856"/>
+        <c:axId val="40318080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +716,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2053888936"/>
+        <c:crossAx val="40319616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -719,11 +724,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2053888936"/>
+        <c:axId val="40319616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -738,7 +743,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2117012856"/>
+        <c:crossAx val="40318080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -749,7 +754,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -801,10 +806,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0669000860837422</c:v>
+                    <c:v>6.6900086083742247E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.148135265293643</c:v>
+                    <c:v>0.1481352652936426</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -816,10 +821,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0669000860837422</c:v>
+                    <c:v>6.6900086083742247E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.148135265293643</c:v>
+                    <c:v>0.1481352652936426</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -832,10 +837,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.999999999728603</c:v>
+                  <c:v>0.99999999972860276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.590162780770945</c:v>
+                  <c:v>0.59016278077094519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,11 +855,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2053371720"/>
-        <c:axId val="-2117016696"/>
+        <c:axId val="40337408"/>
+        <c:axId val="40338944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2053371720"/>
+        <c:axId val="40337408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +875,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2117016696"/>
+        <c:crossAx val="40338944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -878,7 +883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117016696"/>
+        <c:axId val="40338944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
@@ -896,7 +901,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2053371720"/>
+        <c:crossAx val="40337408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -907,7 +912,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -959,10 +964,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0174356426717437</c:v>
+                    <c:v>1.74356426717437E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.161626437524005</c:v>
+                    <c:v>0.16162643752400452</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -974,10 +979,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0174356426717437</c:v>
+                    <c:v>1.74356426717437E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.161626437524005</c:v>
+                    <c:v>0.16162643752400452</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -990,10 +995,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.999999999403515</c:v>
+                  <c:v>0.99999999940351525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.000614495947636</c:v>
+                  <c:v>1.0006144959476364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,11 +1013,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2116764072"/>
-        <c:axId val="-2116760792"/>
+        <c:axId val="40363136"/>
+        <c:axId val="40364672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116764072"/>
+        <c:axId val="40363136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1033,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2116760792"/>
+        <c:crossAx val="40364672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1036,7 +1041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116760792"/>
+        <c:axId val="40364672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
@@ -1057,7 +1062,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2116764072"/>
+        <c:crossAx val="40363136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1068,7 +1073,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1120,10 +1125,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0934293633054135</c:v>
+                    <c:v>9.3429363305413543E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0512845083206826</c:v>
+                    <c:v>5.1284508320682647E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1135,10 +1140,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0934293633054135</c:v>
+                    <c:v>9.3429363305413543E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0512845083206826</c:v>
+                    <c:v>5.1284508320682647E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1165,10 +1170,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.954589984440731</c:v>
+                  <c:v>0.95458998444073062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,10 +1199,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0390405339044332</c:v>
+                    <c:v>3.9040533904433218E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.120098447601697</c:v>
+                    <c:v>0.12009844760169661</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1209,10 +1214,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>0.0390405339044332</c:v>
+                    <c:v>3.9040533904433218E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.120098447601697</c:v>
+                    <c:v>0.12009844760169661</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1225,10 +1230,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.892775528759769</c:v>
+                  <c:v>0.89277552875976873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,11 +1248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2103204184"/>
-        <c:axId val="-2116092200"/>
+        <c:axId val="66654592"/>
+        <c:axId val="66656128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2103204184"/>
+        <c:axId val="66654592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1268,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2116092200"/>
+        <c:crossAx val="66656128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1271,10 +1276,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116092200"/>
+        <c:axId val="66656128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.0"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1289,7 +1294,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2103204184"/>
+        <c:crossAx val="66654592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1300,7 +1305,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1824,19 +1829,19 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +1861,7 @@
         <v>0.80929819487180421</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1872,7 +1877,7 @@
         <v>1.0300138073925991</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1888,7 +1893,7 @@
         <v>1.1606879967598307</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1926,7 +1931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>0.13041204485910482</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>0.16817918289534323</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J11" t="s">
         <v>9</v>
       </c>
@@ -2041,7 +2046,7 @@
         <v>0.10505714173834954</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2073,7 +2078,7 @@
         <v>0.1481352652936426</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2125,7 @@
         <v>0.16162643752400452</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2136,7 +2141,7 @@
         <v>1.1332286380267456</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2157,7 @@
         <v>1.0000505405499318</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2172,7 +2177,7 @@
         <v>0.94171059721734129</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2188,7 +2193,7 @@
         <v>1.137584232662056</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2204,12 +2209,12 @@
         <v>1.5141796298391148</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -2229,7 +2234,7 @@
         <v>1.0790186645522939</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
@@ -2245,7 +2250,7 @@
         <v>0.94918200472294645</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2266,7 @@
         <v>0.97179933074554969</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -2281,7 +2286,7 @@
         <v>0.97901291960892278</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2297,7 +2302,7 @@
         <v>1.2175250292546946</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -2313,12 +2318,12 @@
         <v>1.3358230088572045</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -2338,7 +2343,7 @@
         <v>0.95370490916307493</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -2354,7 +2359,7 @@
         <v>1.1317185406013752</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2370,7 +2375,7 @@
         <v>0.91457654942135802</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>0.3867186807063554</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2406,7 +2411,7 @@
         <v>0.50578206005791271</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -2422,12 +2427,12 @@
         <v>0.87798760154856748</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -2447,7 +2452,7 @@
         <v>0.98518363745571091</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>1.0347065879956789</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2484,7 @@
         <v>0.98010977275915601</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -2499,7 +2504,7 @@
         <v>0.77102505989135328</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>0.91881226585362674</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -2531,12 +2536,12 @@
         <v>1.3120061620979291</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -2548,7 +2553,7 @@
         <v>2.150708277487027</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
@@ -2560,7 +2565,7 @@
         <v>2.1690157242282173</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -2572,7 +2577,7 @@
         <v>2.2543038763807601</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2584,7 +2589,7 @@
         <v>2.2914160383726063</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
@@ -2596,7 +2601,7 @@
         <v>1.8425893205486628</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -2628,24 +2633,24 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2680,7 +2685,7 @@
         <v>3.9040533904433218E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2711,7 +2716,7 @@
         <v>0.12009844760169661</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>0.91857315737912759</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2735,7 +2740,7 @@
         <v>0.9833458191667146</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2747,7 +2752,7 @@
         <v>0.88330548032040568</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2759,7 +2764,7 @@
         <v>0.95153575750590669</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>0.98749495764421136</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2783,12 +2788,12 @@
         <v>0.99602374229239898</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>1.023531703937826</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -2816,7 +2821,7 @@
         <v>0.96378239127140475</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2828,7 +2833,7 @@
         <v>1.0425822094256705</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2840,7 +2845,7 @@
         <v>0.97010369536509866</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>0.73415604095858678</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2864,7 +2869,7 @@
         <v>0.92284393739311144</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2876,7 +2881,7 @@
         <v>0.89017816552291473</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
